--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E6F5E-D42B-42DF-B17E-F6444EC3F9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE18EE9D-DC58-4232-9B1A-836BBE724CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,13 +161,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Mangrove Communication   18.12.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (18/12/2024) </t>
-  </si>
-  <si>
     <t>29 tk data</t>
+  </si>
+  <si>
+    <t>Mangrove Communication   25.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (25/12/2024) </t>
   </si>
 </sst>
 </file>
@@ -354,6 +354,9 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,9 +370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,7 +655,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,15 +669,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -709,8 +709,8 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
-        <v>32213</v>
+      <c r="C3" s="12">
+        <v>31645</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -726,12 +726,14 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
-        <v>23740</v>
+      <c r="C4" s="12">
+        <v>22199</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>25</v>
+      </c>
       <c r="G4" s="2">
         <v>12</v>
       </c>
@@ -743,12 +745,14 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17">
-        <v>22695</v>
+      <c r="C5" s="12">
+        <v>24831</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
       <c r="G5" s="2">
         <v>16</v>
       </c>
@@ -760,8 +764,8 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
-        <v>28403</v>
+      <c r="C6" s="12">
+        <v>36442</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -771,13 +775,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>107051</v>
+        <v>115117</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
@@ -789,7 +793,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -797,28 +801,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -854,18 +858,18 @@
         <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>176323</v>
+        <v>190819</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <f>C13-D13+E13+F13</f>
-        <v>176323</v>
+        <v>190819</v>
       </c>
       <c r="H13" s="7">
         <f>G13-3.75%*G13</f>
-        <v>169710.88750000001</v>
+        <v>183663.28750000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -876,22 +880,20 @@
         <v>22</v>
       </c>
       <c r="C14" s="8">
-        <v>265641</v>
+        <v>375420</v>
       </c>
       <c r="D14" s="8">
-        <v>107051</v>
-      </c>
-      <c r="E14" s="4">
-        <v>107510</v>
-      </c>
+        <v>115117</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>266100</v>
+        <v>260303</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>256121.25</v>
+        <v>250541.63750000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -961,17 +963,19 @@
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8">
+        <v>500</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H18" s="9">
         <f>G18*19.2</f>
-        <v>0</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1001,17 +1005,19 @@
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>0</v>
+        <v>36620</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1019,21 +1025,19 @@
         <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>1500</v>
-      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>41865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1084,18 +1088,18 @@
         <v>31</v>
       </c>
       <c r="C24" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>4700</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1106,11 +1110,9 @@
         <v>32</v>
       </c>
       <c r="C25" s="8">
-        <v>40</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
@@ -1132,16 +1134,18 @@
       <c r="C26" s="8">
         <v>70</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>30</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>22610</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1152,18 +1156,20 @@
         <v>34</v>
       </c>
       <c r="C27" s="8">
-        <v>78</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>7800</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1235,18 +1241,18 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="G32" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="11">
         <f>SUM(H13:H31)</f>
-        <v>512206.13750000001</v>
+        <v>521993.92500000005</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE18EE9D-DC58-4232-9B1A-836BBE724CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927D963-F68E-4A91-B4AC-2E72A1DF720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,10 +164,10 @@
     <t>29 tk data</t>
   </si>
   <si>
-    <t>Mangrove Communication   25.12.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (25/12/2024) </t>
+    <t xml:space="preserve">DAILY STOCK                         (30/12/2024) </t>
+  </si>
+  <si>
+    <t>Mangrove Communication   30.12.2024</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -710,9 +710,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="12">
-        <v>31645</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>23361</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27231</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -727,13 +729,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="12">
-        <v>22199</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>20776</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5550</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>25</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>12</v>
       </c>
@@ -746,9 +748,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="12">
-        <v>24831</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>17687</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19989</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>5</v>
@@ -765,9 +769,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="12">
-        <v>36442</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>23223</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1110</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -781,11 +787,11 @@
       <c r="B7" s="17"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>115117</v>
+        <v>85047</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>0</v>
+        <v>53880</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
@@ -793,7 +799,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -802,7 +808,7 @@
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -858,18 +864,18 @@
         <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>190819</v>
+        <v>157384</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <f>C13-D13+E13+F13</f>
-        <v>190819</v>
+        <v>157384</v>
       </c>
       <c r="H13" s="7">
         <f>G13-3.75%*G13</f>
-        <v>183663.28750000001</v>
+        <v>151482.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -880,20 +886,22 @@
         <v>22</v>
       </c>
       <c r="C14" s="8">
-        <v>375420</v>
+        <v>264450</v>
       </c>
       <c r="D14" s="8">
-        <v>115117</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>85087</v>
+      </c>
+      <c r="E14" s="4">
+        <v>207792</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>260303</v>
+        <v>387155</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>250541.63750000001</v>
+        <v>372636.6875</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1006,18 +1014,20 @@
         <v>28</v>
       </c>
       <c r="C20" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>4150</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2760</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1390</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>36620</v>
+        <v>25450.899999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1027,17 +1037,21 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="8">
+        <v>220</v>
+      </c>
+      <c r="D21" s="8">
+        <v>100</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>0</v>
+        <v>3349.2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1088,18 +1102,18 @@
         <v>31</v>
       </c>
       <c r="C24" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>11750</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1132,20 +1146,20 @@
         <v>33</v>
       </c>
       <c r="C26" s="8">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>12920</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1156,20 +1170,20 @@
         <v>34</v>
       </c>
       <c r="C27" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>7500</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1252,7 +1266,7 @@
       </c>
       <c r="H32" s="11">
         <f>SUM(H13:H31)</f>
-        <v>521993.92500000005</v>
+        <v>591417.88749999995</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927D963-F68E-4A91-B4AC-2E72A1DF720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38B184B-0F44-4A07-8E1E-888B0FA86380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,10 +164,10 @@
     <t>29 tk data</t>
   </si>
   <si>
-    <t xml:space="preserve">DAILY STOCK                         (30/12/2024) </t>
-  </si>
-  <si>
-    <t>Mangrove Communication   30.12.2024</t>
+    <t>Mangrove Communication   09.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (09/01/2025) </t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -710,10 +710,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="12">
-        <v>23361</v>
+        <v>29275</v>
       </c>
       <c r="D3" s="2">
-        <v>27231</v>
+        <v>3199</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -729,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="12">
-        <v>20776</v>
+        <v>45936</v>
       </c>
       <c r="D4" s="2">
-        <v>5550</v>
+        <v>15244</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -748,15 +748,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="12">
-        <v>17687</v>
+        <v>35540</v>
       </c>
       <c r="D5" s="2">
-        <v>19989</v>
+        <v>10257</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>16</v>
       </c>
@@ -769,10 +767,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="12">
-        <v>23223</v>
+        <v>64350</v>
       </c>
       <c r="D6" s="2">
-        <v>1110</v>
+        <v>11668</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -787,11 +785,11 @@
       <c r="B7" s="17"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>85047</v>
+        <v>175101</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>53880</v>
+        <v>40368</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
@@ -799,7 +797,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -808,7 +806,7 @@
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -864,18 +862,18 @@
         <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>157384</v>
+        <v>145970</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <f>C13-D13+E13+F13</f>
-        <v>157384</v>
+        <v>145970</v>
       </c>
       <c r="H13" s="7">
         <f>G13-3.75%*G13</f>
-        <v>151482.1</v>
+        <v>140496.125</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -886,22 +884,22 @@
         <v>22</v>
       </c>
       <c r="C14" s="8">
-        <v>264450</v>
+        <v>240567</v>
       </c>
       <c r="D14" s="8">
-        <v>85087</v>
+        <v>175101</v>
       </c>
       <c r="E14" s="4">
-        <v>207792</v>
+        <v>432107</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>387155</v>
+        <v>497573</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>372636.6875</v>
+        <v>478914.01250000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -972,18 +970,18 @@
         <v>26</v>
       </c>
       <c r="C18" s="8">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="H18" s="9">
         <f>G18*19.2</f>
-        <v>9600</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1017,17 +1015,19 @@
         <v>4150</v>
       </c>
       <c r="D20" s="8">
-        <v>2760</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>2100</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5000</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>1390</v>
+        <v>7050</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>25450.899999999998</v>
+        <v>129085.49999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1038,20 +1038,20 @@
         <v>41</v>
       </c>
       <c r="C21" s="8">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D21" s="8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>3349.2</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1061,17 +1061,21 @@
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8">
+        <v>1000</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>1000</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="9">
         <f>G22*27.24</f>
-        <v>0</v>
+        <v>54480</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1102,18 +1106,18 @@
         <v>31</v>
       </c>
       <c r="C24" s="8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>5640</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1146,20 +1150,20 @@
         <v>33</v>
       </c>
       <c r="C26" s="8">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D26" s="4">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>6460</v>
+        <v>11628</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1170,7 +1174,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1179,11 +1183,11 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>7400</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1266,7 +1270,7 @@
       </c>
       <c r="H32" s="11">
         <f>SUM(H13:H31)</f>
-        <v>591417.88749999995</v>
+        <v>861628.63749999995</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38B184B-0F44-4A07-8E1E-888B0FA86380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E55510-D57D-460C-A972-34EF0D860EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>Liton Roy</t>
   </si>
   <si>
-    <t>Ripon Mondal</t>
-  </si>
-  <si>
     <t>SSO Terget</t>
   </si>
   <si>
@@ -164,10 +161,13 @@
     <t>29 tk data</t>
   </si>
   <si>
-    <t>Mangrove Communication   09.01.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (09/01/2025) </t>
+    <t>Arman Hosen</t>
+  </si>
+  <si>
+    <t>Mangrove Communication   20.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (20/01/2025) </t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="12">
-        <v>29275</v>
+        <v>31670</v>
       </c>
       <c r="D3" s="2">
-        <v>3199</v>
+        <v>47373</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -729,13 +729,17 @@
         <v>8</v>
       </c>
       <c r="C4" s="12">
-        <v>45936</v>
+        <v>32594</v>
       </c>
       <c r="D4" s="2">
-        <v>15244</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>20516</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
       <c r="G4" s="2">
         <v>12</v>
       </c>
@@ -748,10 +752,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="12">
-        <v>35540</v>
+        <v>25704</v>
       </c>
       <c r="D5" s="2">
-        <v>10257</v>
+        <v>16756</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -764,15 +768,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12">
-        <v>64350</v>
+        <v>31242</v>
       </c>
       <c r="D6" s="2">
-        <v>11668</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>14214</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>19</v>
@@ -785,19 +791,19 @@
       <c r="B7" s="17"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>175101</v>
+        <v>121210</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>40368</v>
+        <v>98859</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -818,7 +824,7 @@
     </row>
     <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -830,28 +836,28 @@
     </row>
     <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -859,21 +865,21 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5">
-        <v>145970</v>
+        <v>109658</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <f>C13-D13+E13+F13</f>
-        <v>145970</v>
+        <v>109658</v>
       </c>
       <c r="H13" s="7">
         <f>G13-3.75%*G13</f>
-        <v>140496.125</v>
+        <v>105545.825</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -881,25 +887,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>240567</v>
+        <v>240152</v>
       </c>
       <c r="D14" s="8">
-        <v>175101</v>
+        <v>121210</v>
       </c>
       <c r="E14" s="4">
-        <v>432107</v>
+        <v>124675</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>497573</v>
+        <v>243617</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>478914.01250000001</v>
+        <v>234481.36249999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -907,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
@@ -927,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="4"/>
@@ -947,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="4"/>
@@ -967,21 +973,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="8">
-        <v>320</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H18" s="9">
         <f>G18*19.2</f>
-        <v>6144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -989,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="4"/>
@@ -1009,25 +1013,23 @@
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8">
-        <v>4150</v>
+        <v>9500</v>
       </c>
       <c r="D20" s="8">
-        <v>2100</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5000</v>
-      </c>
+        <v>4500</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>7050</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>129085.49999999999</v>
+        <v>91550</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1035,23 +1037,19 @@
         <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8">
-        <v>230</v>
-      </c>
-      <c r="D21" s="8">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>5582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1059,23 +1057,23 @@
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
-        <v>1000</v>
-      </c>
+        <v>2110</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1880</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>230</v>
       </c>
       <c r="H22" s="9">
         <f>G22*27.24</f>
-        <v>54480</v>
+        <v>6265.2</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1083,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="4"/>
@@ -1103,21 +1101,23 @@
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8">
         <v>40</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>18800</v>
+        <v>16450</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1125,21 +1125,21 @@
         <v>13</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H25" s="9">
         <f>G25*241</f>
-        <v>9399</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1147,23 +1147,23 @@
         <v>14</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>11628</v>
+        <v>16796</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1171,23 +1171,23 @@
         <v>15</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="8">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>7100</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1195,7 +1195,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="4"/>
@@ -1212,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="4"/>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="4"/>
@@ -1246,7 +1246,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="4"/>
@@ -1260,17 +1260,17 @@
     </row>
     <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="G32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="11">
         <f>SUM(H13:H31)</f>
-        <v>861628.63749999995</v>
+        <v>487459.38750000001</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E55510-D57D-460C-A972-34EF0D860EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F58D29-B12C-4DA2-9EFB-C3DF9142C0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,10 +164,10 @@
     <t>Arman Hosen</t>
   </si>
   <si>
-    <t>Mangrove Communication   20.01.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (20/01/2025) </t>
+    <t>Mangrove Communication   28.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (29/01/2025) </t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,10 +710,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="12">
-        <v>31670</v>
+        <v>43137</v>
       </c>
       <c r="D3" s="2">
-        <v>47373</v>
+        <v>7623</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -729,17 +729,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="12">
-        <v>32594</v>
+        <v>29436</v>
       </c>
       <c r="D4" s="2">
-        <v>20516</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
+        <v>9975</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>12</v>
       </c>
@@ -752,10 +748,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="12">
-        <v>25704</v>
+        <v>38971</v>
       </c>
       <c r="D5" s="2">
-        <v>16756</v>
+        <v>17598</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -771,14 +767,12 @@
         <v>41</v>
       </c>
       <c r="C6" s="12">
-        <v>31242</v>
+        <v>36591</v>
       </c>
       <c r="D6" s="2">
-        <v>14214</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
+        <v>6964</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>19</v>
@@ -791,19 +785,19 @@
       <c r="B7" s="17"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>121210</v>
+        <v>148135</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>98859</v>
+        <v>42160</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -868,18 +862,18 @@
         <v>20</v>
       </c>
       <c r="C13" s="5">
-        <v>109658</v>
+        <v>104517</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <f>C13-D13+E13+F13</f>
-        <v>109658</v>
+        <v>104517</v>
       </c>
       <c r="H13" s="7">
         <f>G13-3.75%*G13</f>
-        <v>105545.825</v>
+        <v>100597.6125</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -890,22 +884,22 @@
         <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>240152</v>
+        <v>272209</v>
       </c>
       <c r="D14" s="8">
-        <v>121210</v>
+        <v>148135</v>
       </c>
       <c r="E14" s="4">
-        <v>124675</v>
+        <v>114285</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>243617</v>
+        <v>238359</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>234481.36249999999</v>
+        <v>229420.53750000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1016,20 +1010,20 @@
         <v>27</v>
       </c>
       <c r="C20" s="8">
-        <v>9500</v>
+        <v>5850</v>
       </c>
       <c r="D20" s="8">
-        <v>4500</v>
+        <v>2060</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>3790</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>91550</v>
+        <v>69394.899999999994</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1039,17 +1033,21 @@
       <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="8">
+        <v>310</v>
+      </c>
+      <c r="D21" s="8">
+        <v>120</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>0</v>
+        <v>5302.9</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1060,20 +1058,18 @@
         <v>28</v>
       </c>
       <c r="C22" s="8">
-        <v>2110</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1880</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>590</v>
       </c>
       <c r="H22" s="9">
         <f>G22*27.24</f>
-        <v>6265.2</v>
+        <v>16071.599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1104,20 +1100,18 @@
         <v>30</v>
       </c>
       <c r="C24" s="8">
-        <v>40</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>16450</v>
+        <v>10810</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1150,20 +1144,18 @@
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>55</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>16796</v>
+        <v>14212</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1174,20 +1166,20 @@
         <v>33</v>
       </c>
       <c r="C27" s="8">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D27" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>8900</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1270,7 +1262,7 @@
       </c>
       <c r="H32" s="11">
         <f>SUM(H13:H31)</f>
-        <v>487459.38750000001</v>
+        <v>461580.55000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F58D29-B12C-4DA2-9EFB-C3DF9142C0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0319F8-D976-4E2F-B0FD-C3E680F19801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,10 +164,10 @@
     <t>Arman Hosen</t>
   </si>
   <si>
-    <t>Mangrove Communication   28.01.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (29/01/2025) </t>
+    <t>Mangrove Communication   02.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (02/02/2025) </t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,10 +710,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="12">
-        <v>43137</v>
+        <v>28335</v>
       </c>
       <c r="D3" s="2">
-        <v>7623</v>
+        <v>2070</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -729,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="12">
-        <v>29436</v>
+        <v>29598</v>
       </c>
       <c r="D4" s="2">
-        <v>9975</v>
+        <v>6963</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -748,10 +748,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="12">
-        <v>38971</v>
+        <v>30479</v>
       </c>
       <c r="D5" s="2">
-        <v>17598</v>
+        <v>3011</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -767,13 +767,15 @@
         <v>41</v>
       </c>
       <c r="C6" s="12">
-        <v>36591</v>
+        <v>28572</v>
       </c>
       <c r="D6" s="2">
-        <v>6964</v>
+        <v>9411</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
       <c r="G6" s="2">
         <v>19</v>
       </c>
@@ -785,11 +787,11 @@
       <c r="B7" s="17"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>148135</v>
+        <v>116984</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>42160</v>
+        <v>21455</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
@@ -797,7 +799,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -884,22 +886,22 @@
         <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>272209</v>
+        <v>297170</v>
       </c>
       <c r="D14" s="8">
-        <v>148135</v>
+        <v>116984</v>
       </c>
       <c r="E14" s="4">
-        <v>114285</v>
+        <v>67974</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>238359</v>
+        <v>248160</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>229420.53750000001</v>
+        <v>238854</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1010,20 +1012,22 @@
         <v>27</v>
       </c>
       <c r="C20" s="8">
-        <v>5850</v>
+        <v>610</v>
       </c>
       <c r="D20" s="8">
-        <v>2060</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>1140</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2500</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>3790</v>
+        <v>1970</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>69394.899999999994</v>
+        <v>36070.699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1033,21 +1037,17 @@
       <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8">
-        <v>310</v>
-      </c>
-      <c r="D21" s="8">
-        <v>120</v>
-      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>5302.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1058,18 +1058,18 @@
         <v>28</v>
       </c>
       <c r="C22" s="8">
-        <v>590</v>
+        <v>450</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>450</v>
       </c>
       <c r="H22" s="9">
         <f>G22*27.24</f>
-        <v>16071.599999999999</v>
+        <v>12258</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1100,18 +1100,18 @@
         <v>30</v>
       </c>
       <c r="C24" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>10810</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1144,18 +1144,20 @@
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>44</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>14212</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1166,11 +1168,9 @@
         <v>33</v>
       </c>
       <c r="C27" s="8">
-        <v>84</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="H32" s="11">
         <f>SUM(H13:H31)</f>
-        <v>461580.55000000005</v>
+        <v>415005.3125</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0319F8-D976-4E2F-B0FD-C3E680F19801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4A296-626C-4F5E-9EED-A37266DCF190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -164,17 +164,35 @@
     <t>Arman Hosen</t>
   </si>
   <si>
-    <t>Mangrove Communication   02.02.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (02/02/2025) </t>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Extra Exp</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>GTAND TOTAL</t>
+  </si>
+  <si>
+    <t>Mangrove Communication   19.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (19/02/2025) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,8 +252,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +286,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -319,11 +351,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,18 +406,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,9 +436,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,32 +718,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -709,14 +776,18 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
-        <v>28335</v>
+      <c r="C3" s="10">
+        <v>40424</v>
       </c>
       <c r="D3" s="2">
-        <v>2070</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>4141</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
       <c r="G3" s="2">
         <v>14</v>
       </c>
@@ -728,11 +799,11 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12">
-        <v>29598</v>
+      <c r="C4" s="10">
+        <v>27151</v>
       </c>
       <c r="D4" s="2">
-        <v>6963</v>
+        <v>565</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -747,11 +818,11 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12">
-        <v>30479</v>
+      <c r="C5" s="10">
+        <v>38678</v>
       </c>
       <c r="D5" s="2">
-        <v>3011</v>
+        <v>4048</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -766,40 +837,38 @@
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="12">
-        <v>28572</v>
+      <c r="C6" s="10">
+        <v>32889</v>
       </c>
       <c r="D6" s="2">
-        <v>9411</v>
+        <v>3577</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>116984</v>
+        <v>139142</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>21455</v>
+        <v>12331</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -807,30 +876,30 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="A10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -864,18 +933,20 @@
         <v>20</v>
       </c>
       <c r="C13" s="5">
-        <v>104517</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>68528</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10283</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <f>C13-D13+E13+F13</f>
-        <v>104517</v>
+        <v>58245</v>
       </c>
       <c r="H13" s="7">
         <f>G13-3.75%*G13</f>
-        <v>100597.6125</v>
+        <v>56060.8125</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -886,22 +957,22 @@
         <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>297170</v>
+        <v>278237</v>
       </c>
       <c r="D14" s="8">
-        <v>116984</v>
+        <v>139142</v>
       </c>
       <c r="E14" s="4">
-        <v>67974</v>
+        <v>124675</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>248160</v>
+        <v>263770</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>238854</v>
+        <v>253878.625</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1012,22 +1083,20 @@
         <v>27</v>
       </c>
       <c r="C20" s="8">
-        <v>610</v>
+        <v>6010</v>
       </c>
       <c r="D20" s="8">
-        <v>1140</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2500</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>1970</v>
+        <v>5610</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>36070.699999999997</v>
+        <v>102719.09999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1037,17 +1106,21 @@
       <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="8">
+        <v>1160</v>
+      </c>
+      <c r="D21" s="8">
+        <v>20</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>0</v>
+        <v>31817.4</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1058,18 +1131,20 @@
         <v>28</v>
       </c>
       <c r="C22" s="8">
-        <v>450</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>440</v>
+      </c>
+      <c r="D22" s="4">
+        <v>150</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="H22" s="9">
         <f>G22*27.24</f>
-        <v>12258</v>
+        <v>7899.5999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1100,18 +1175,20 @@
         <v>30</v>
       </c>
       <c r="C24" s="8">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>5640</v>
+        <v>12220</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1144,20 +1221,20 @@
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>5814</v>
+        <v>17119</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1168,18 +1245,18 @@
         <v>33</v>
       </c>
       <c r="C27" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>8300</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1251,28 +1328,85 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="G32" s="10" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="G32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="12">
         <f>SUM(H13:H31)</f>
-        <v>415005.3125</v>
+        <v>496885.53749999998</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13">
+        <v>55434</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F39" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="14">
+        <f>H38+H37+H36+H35+H34+H33+H32</f>
+        <v>874393.53749999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4A296-626C-4F5E-9EED-A37266DCF190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B1B30-B1D5-4DF6-BDA2-6CB264F745BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,10 @@
     <t>GTAND TOTAL</t>
   </si>
   <si>
-    <t>Mangrove Communication   19.02.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (19/02/2025) </t>
+    <t>Mangrove Communication  01.03.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (01/03/2025) </t>
   </si>
 </sst>
 </file>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,17 +777,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="10">
-        <v>40424</v>
+        <v>29731</v>
       </c>
       <c r="D3" s="2">
-        <v>4141</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
+        <v>7250</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>14</v>
       </c>
@@ -800,12 +796,14 @@
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>27151</v>
+        <v>29653</v>
       </c>
       <c r="D4" s="2">
-        <v>565</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>7247</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>12</v>
@@ -819,10 +817,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>38678</v>
+        <v>26110</v>
       </c>
       <c r="D5" s="2">
-        <v>4048</v>
+        <v>3821</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -838,10 +836,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="10">
-        <v>32889</v>
+        <v>48165</v>
       </c>
       <c r="D6" s="2">
-        <v>3577</v>
+        <v>1977</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -856,11 +854,11 @@
       <c r="B7" s="16"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>139142</v>
+        <v>133659</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>12331</v>
+        <v>20295</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
@@ -868,7 +866,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -933,20 +931,18 @@
         <v>20</v>
       </c>
       <c r="C13" s="5">
-        <v>68528</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10283</v>
-      </c>
+        <v>53105</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <f>C13-D13+E13+F13</f>
-        <v>58245</v>
+        <v>53105</v>
       </c>
       <c r="H13" s="7">
         <f>G13-3.75%*G13</f>
-        <v>56060.8125</v>
+        <v>51113.5625</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -957,22 +953,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>278237</v>
+        <v>383944</v>
       </c>
       <c r="D14" s="8">
-        <v>139142</v>
-      </c>
-      <c r="E14" s="4">
-        <v>124675</v>
-      </c>
+        <v>133659</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>263770</v>
+        <v>250285</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>253878.625</v>
+        <v>240899.3125</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1083,20 +1077,20 @@
         <v>27</v>
       </c>
       <c r="C20" s="8">
-        <v>6010</v>
+        <v>3470</v>
       </c>
       <c r="D20" s="8">
-        <v>400</v>
+        <v>730</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>5610</v>
+        <v>2740</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>102719.09999999999</v>
+        <v>50169.399999999994</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1107,20 +1101,20 @@
         <v>40</v>
       </c>
       <c r="C21" s="8">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="D21" s="8">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>248</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>31817.4</v>
+        <v>6921.68</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1131,20 +1125,20 @@
         <v>28</v>
       </c>
       <c r="C22" s="8">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="D22" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H22" s="9">
         <f>G22*27.24</f>
-        <v>7899.5999999999995</v>
+        <v>7627.2</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1175,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="8">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D24" s="4">
         <v>5</v>
@@ -1184,11 +1178,11 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>12220</v>
+        <v>16450</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1221,20 +1215,18 @@
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>55</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>17119</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1339,7 +1331,7 @@
       </c>
       <c r="H32" s="12">
         <f>SUM(H13:H31)</f>
-        <v>496885.53749999998</v>
+        <v>394166.15500000003</v>
       </c>
     </row>
     <row r="33" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1348,7 +1340,7 @@
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13">
-        <v>42074</v>
+        <v>225270</v>
       </c>
     </row>
     <row r="34" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1357,7 +1349,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
-        <v>55434</v>
+        <v>122674</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1380,7 +1372,7 @@
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13">
-        <v>280000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1395,7 +1387,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="14">
         <f>H38+H37+H36+H35+H34+H33+H32</f>
-        <v>874393.53749999998</v>
+        <v>892110.15500000003</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B1B30-B1D5-4DF6-BDA2-6CB264F745BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD388602-7E31-444D-9FF4-F84415D29014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -182,10 +182,16 @@
     <t>GTAND TOTAL</t>
   </si>
   <si>
-    <t>Mangrove Communication  01.03.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (01/03/2025) </t>
+    <t>Ryze sim  (470)</t>
+  </si>
+  <si>
+    <t>Loan to E-life</t>
+  </si>
+  <si>
+    <t>Mangrove Communication  27.03.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (27/03/2025) </t>
   </si>
 </sst>
 </file>
@@ -718,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +743,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -777,11 +783,9 @@
         <v>7</v>
       </c>
       <c r="C3" s="10">
-        <v>29731</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7250</v>
-      </c>
+        <v>243226</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -796,15 +800,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>29653</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7247</v>
-      </c>
+        <v>215958</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
       <c r="G4" s="2">
         <v>12</v>
       </c>
@@ -817,11 +821,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>26110</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3821</v>
-      </c>
+        <v>156224</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -836,11 +838,9 @@
         <v>41</v>
       </c>
       <c r="C6" s="10">
-        <v>48165</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1977</v>
-      </c>
+        <v>240863</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -854,19 +854,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>133659</v>
+        <v>856271</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>20295</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -875,7 +875,7 @@
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -931,18 +931,18 @@
         <v>20</v>
       </c>
       <c r="C13" s="5">
-        <v>53105</v>
+        <v>28562</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <f>C13-D13+E13+F13</f>
-        <v>53105</v>
+        <v>28562</v>
       </c>
       <c r="H13" s="7">
         <f>G13-3.75%*G13</f>
-        <v>51113.5625</v>
+        <v>27490.924999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -953,20 +953,22 @@
         <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>383944</v>
+        <v>10322</v>
       </c>
       <c r="D14" s="8">
-        <v>133659</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>856271</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1166753</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>250285</v>
+        <v>320804</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>240899.3125</v>
+        <v>308773.84999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1021,7 +1023,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <f t="shared" ref="G17:G31" si="0">C17-D17+E17+F17</f>
+        <f t="shared" ref="G17:G32" si="0">C17-D17+E17+F17</f>
         <v>0</v>
       </c>
       <c r="H17" s="9">
@@ -1077,20 +1079,18 @@
         <v>27</v>
       </c>
       <c r="C20" s="8">
-        <v>3470</v>
-      </c>
-      <c r="D20" s="8">
-        <v>730</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>2740</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>50169.399999999994</v>
+        <v>73240</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1100,21 +1100,17 @@
       <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8">
-        <v>400</v>
-      </c>
-      <c r="D21" s="8">
-        <v>152</v>
-      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>6921.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1124,21 +1120,17 @@
       <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8">
-        <v>360</v>
-      </c>
-      <c r="D22" s="4">
-        <v>80</v>
-      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
         <f>G22*27.24</f>
-        <v>7627.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1169,20 +1161,20 @@
         <v>30</v>
       </c>
       <c r="C24" s="8">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>16450</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1215,18 +1207,20 @@
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>18</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>5814</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1237,43 +1231,46 @@
         <v>33</v>
       </c>
       <c r="C27" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>7700</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>16</v>
-      </c>
+      <c r="A28" s="4"/>
       <c r="B28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="C28" s="8">
+        <v>20</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="H28" s="9">
+        <f>G28*470</f>
+        <v>9400</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
-        <v>17</v>
+      <c r="A29" s="4">
+        <v>16</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="4"/>
@@ -1286,11 +1283,11 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>18</v>
+      <c r="A30" s="8">
+        <v>17</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="4"/>
@@ -1304,10 +1301,10 @@
     </row>
     <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="4"/>
@@ -1319,86 +1316,106 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>19</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="G32" s="11" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="G33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="12">
-        <f>SUM(H13:H31)</f>
-        <v>394166.15500000003</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F33" s="13" t="s">
+      <c r="H33" s="12">
+        <f>SUM(H13:H32)</f>
+        <v>443768.77499999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F34" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13">
-        <v>225270</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F34" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
-        <v>122674</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>322679</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13">
+        <v>14670</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F36" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F38" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F39" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="13">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F40" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="14">
-        <f>H38+H37+H36+H35+H34+H33+H32</f>
-        <v>892110.15500000003</v>
+      <c r="G40" s="18"/>
+      <c r="H40" s="14">
+        <f>H33+H34+H35+H36+H37+H38+H39</f>
+        <v>883117.77499999991</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A11:G11"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD388602-7E31-444D-9FF4-F84415D29014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2528E1-F44E-42DB-87D7-30669340749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,10 +188,10 @@
     <t>Loan to E-life</t>
   </si>
   <si>
-    <t>Mangrove Communication  27.03.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (27/03/2025) </t>
+    <t>Mangrove Communication  06.04.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (06/04/2025) </t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="10">
-        <v>243226</v>
+        <v>15834</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -800,15 +800,11 @@
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>215958</v>
+        <v>24562</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>12</v>
       </c>
@@ -821,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>156224</v>
+        <v>25078</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -838,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="10">
-        <v>240863</v>
+        <v>25177</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -854,7 +850,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>856271</v>
+        <v>90651</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
@@ -862,11 +858,11 @@
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -953,22 +949,22 @@
         <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>10322</v>
+        <v>287526</v>
       </c>
       <c r="D14" s="8">
-        <v>856271</v>
+        <v>160651</v>
       </c>
       <c r="E14" s="4">
-        <v>1166753</v>
+        <v>200000</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>320804</v>
+        <v>326875</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>308773.84999999998</v>
+        <v>314617.1875</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1161,11 +1157,9 @@
         <v>30</v>
       </c>
       <c r="C24" s="8">
-        <v>22</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
@@ -1207,20 +1201,20 @@
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4">
-        <v>7</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
+        <v>100</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>323</v>
+        <v>32623</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1254,15 +1248,17 @@
         <v>20</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>10</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H28" s="9">
         <f>G28*470</f>
-        <v>9400</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1345,7 +1341,7 @@
       </c>
       <c r="H33" s="12">
         <f>SUM(H13:H32)</f>
-        <v>443768.77499999997</v>
+        <v>486612.11249999999</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
-        <v>322679</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1363,7 +1359,7 @@
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13">
-        <v>14670</v>
+        <v>15670</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1385,7 +1381,9 @@
         <v>46</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="H38" s="13">
+        <v>210500</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F39" s="17" t="s">
@@ -1403,7 +1401,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="14">
         <f>H33+H34+H35+H36+H37+H38+H39</f>
-        <v>883117.77499999991</v>
+        <v>859949.11250000005</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2528E1-F44E-42DB-87D7-30669340749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A19F1A-5464-4E99-BB49-53B53704F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,10 +188,10 @@
     <t>Loan to E-life</t>
   </si>
   <si>
-    <t>Mangrove Communication  06.04.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (06/04/2025) </t>
+    <t>Mangrove Communication  14.04.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (14/04/2025) </t>
   </si>
 </sst>
 </file>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,11 +783,15 @@
         <v>7</v>
       </c>
       <c r="C3" s="10">
-        <v>15834</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>29486</v>
+      </c>
+      <c r="D3" s="2">
+        <v>565</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
       <c r="G3" s="2">
         <v>14</v>
       </c>
@@ -800,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>24562</v>
+        <v>20744</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -817,11 +821,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>25078</v>
+        <v>20653</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
       <c r="G5" s="2">
         <v>16</v>
       </c>
@@ -834,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="10">
-        <v>25177</v>
+        <v>32670</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -850,11 +856,11 @@
       <c r="B7" s="16"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>90651</v>
+        <v>103553</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
@@ -862,7 +868,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -949,22 +955,22 @@
         <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>287526</v>
+        <v>407396</v>
       </c>
       <c r="D14" s="8">
-        <v>160651</v>
-      </c>
-      <c r="E14" s="4">
-        <v>200000</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>103553</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>31240</v>
+      </c>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>326875</v>
+        <v>335083</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>314617.1875</v>
+        <v>322517.38750000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1074,19 +1080,17 @@
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8">
-        <v>4000</v>
-      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9">
         <f>G20*18.31</f>
-        <v>73240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1096,17 +1100,21 @@
       <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="8">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8">
+        <v>20</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>0</v>
+        <v>1116.4000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1157,18 +1165,18 @@
         <v>30</v>
       </c>
       <c r="C24" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>9870</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1201,20 +1209,20 @@
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
-        <v>100</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>32623</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1225,18 +1233,18 @@
         <v>33</v>
       </c>
       <c r="C27" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>7200</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1245,12 +1253,10 @@
         <v>48</v>
       </c>
       <c r="C28" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4">
-        <v>10</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
@@ -1341,7 +1347,7 @@
       </c>
       <c r="H33" s="12">
         <f>SUM(H13:H32)</f>
-        <v>486612.11249999999</v>
+        <v>384001.71250000002</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1350,7 +1356,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
-        <v>45167</v>
+        <v>190088</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1359,7 +1365,7 @@
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13">
-        <v>15670</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1382,7 +1388,7 @@
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13">
-        <v>210500</v>
+        <v>211575</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1401,7 +1407,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="14">
         <f>H33+H34+H35+H36+H37+H38+H39</f>
-        <v>859949.11250000005</v>
+        <v>894194.71250000002</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Work/Rso sale & stock report Dh05.xlsx
+++ b/Daily_Work/Rso sale & stock report Dh05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A19F1A-5464-4E99-BB49-53B53704F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C57194-90E4-4996-AD9C-443E43F4CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -188,10 +188,13 @@
     <t>Loan to E-life</t>
   </si>
   <si>
-    <t>Mangrove Communication  14.04.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAILY STOCK                         (14/04/2025) </t>
+    <t>Mangrove Communication  21.04.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY STOCK                         (21/04/2025) </t>
+  </si>
+  <si>
+    <t>Loan to MIST</t>
   </si>
 </sst>
 </file>
@@ -724,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,14 +786,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="10">
-        <v>29486</v>
+        <v>30957</v>
       </c>
       <c r="D3" s="2">
-        <v>565</v>
+        <v>2826</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>14</v>
@@ -804,9 +807,11 @@
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>20744</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>23427</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1413</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -821,13 +826,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>20653</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>23688</v>
+      </c>
+      <c r="D5" s="2">
+        <v>848</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>16</v>
       </c>
@@ -840,11 +845,15 @@
         <v>41</v>
       </c>
       <c r="C6" s="10">
-        <v>32670</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>31118</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1413</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
       <c r="G6" s="2">
         <v>19</v>
       </c>
@@ -856,11 +865,11 @@
       <c r="B7" s="16"/>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>103553</v>
+        <v>109190</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
-        <v>565</v>
+        <v>6500</v>
       </c>
       <c r="E7" s="3">
         <f>SUM(E3:E6)</f>
@@ -868,7 +877,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUM(F3:F6)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G3:G6)</f>
@@ -955,22 +964,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="8">
-        <v>407396</v>
+        <v>217218</v>
       </c>
       <c r="D14" s="8">
-        <v>103553</v>
+        <v>109190</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>31240</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>C14-D14+E14+F14</f>
-        <v>335083</v>
+        <v>108028</v>
       </c>
       <c r="H14" s="7">
         <f>G14-3.75%*G14</f>
-        <v>322517.38750000001</v>
+        <v>103976.95</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1080,8 +1087,12 @@
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2000</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
@@ -1101,20 +1112,20 @@
         <v>40</v>
       </c>
       <c r="C21" s="8">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="D21" s="8">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H21" s="9">
         <f>G21*27.91</f>
-        <v>1116.4000000000001</v>
+        <v>279.10000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1124,8 +1135,12 @@
       <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="8">
+        <v>500</v>
+      </c>
+      <c r="D22" s="4">
+        <v>500</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
@@ -1165,18 +1180,18 @@
         <v>30</v>
       </c>
       <c r="C24" s="8">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f>C24-D24+E24+F24</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H24" s="9">
         <f>G24*470</f>
-        <v>3760</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1209,20 +1224,20 @@
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" s="9">
         <f>G26*323</f>
-        <v>646</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1233,18 +1248,20 @@
         <v>33</v>
       </c>
       <c r="C27" s="8">
-        <v>69</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H27" s="9">
         <f>G27*100</f>
-        <v>6900</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1253,18 +1270,18 @@
         <v>48</v>
       </c>
       <c r="C28" s="8">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H28" s="9">
         <f>G28*470</f>
-        <v>14100</v>
+        <v>20210</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -1347,7 +1364,7 @@
       </c>
       <c r="H33" s="12">
         <f>SUM(H13:H32)</f>
-        <v>384001.71250000002</v>
+        <v>186342.97500000001</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1356,7 +1373,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
-        <v>190088</v>
+        <v>64678</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1365,7 +1382,7 @@
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13">
-        <v>6530</v>
+        <v>17455</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1388,7 +1405,7 @@
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13">
-        <v>211575</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1402,24 +1419,34 @@
     </row>
     <row r="40" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F40" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="13">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F41" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="14">
-        <f>H33+H34+H35+H36+H37+H38+H39</f>
-        <v>894194.71250000002</v>
+      <c r="G41" s="18"/>
+      <c r="H41" s="14">
+        <f>H33+H34+H35+H36+H37+H38+H39+H40</f>
+        <v>886475.97499999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
